--- a/Data/EconomicStability.xlsx
+++ b/Data/EconomicStability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38931A86-7EE2-BD40-B230-7A694BC5B105}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290CD1E-02DE-AF4B-8848-5793C1A255C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="560" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="13760" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>How do you feel about your current childcare situation? Do you feel it is…</t>
   </si>
   <si>
-    <t>57, 59</t>
-  </si>
-  <si>
     <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>57, 59, 63</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="85">
@@ -537,11 +537,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85">
@@ -552,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="85">
@@ -566,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/Data/EconomicStability.xlsx
+++ b/Data/EconomicStability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,16 +45,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
     <t>Source Link</t>
   </si>
   <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
     <t>How do you feel about your current housing situation? Do you feel…</t>
-  </si>
-  <si>
-    <t>How do you feel about your current employment situation? Do you feel it is…</t>
   </si>
   <si>
     <t>•Very stable and secure
@@ -55,6 +61,21 @@
 •Very unstable</t>
   </si>
   <si>
+    <t xml:space="preserve">Rebecca Schapiro, Kim Blankenship, Alana Rosenberg &amp; Danya Keene (2021): The Effects of Rental Assistance on Housing Stability, Quality, Autonomy, and Affordability, Housing Policy Debate, DOI: 10.1080/10511482.2020.1846067 </t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
+  </si>
+  <si>
+    <t>05/12/2021-05/15/2021 05/25/2021-05/28/2021 06/23/2021-06/26/2021</t>
+  </si>
+  <si>
+    <t>How do you feel about your current employment situation? Do you feel it is…</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
     <t>How do you feel about your current work schedule? Do you feel it is…</t>
   </si>
   <si>
@@ -66,18 +87,6 @@
   </si>
   <si>
     <t>How do you feel about your current childcare situation? Do you feel it is…</t>
-  </si>
-  <si>
-    <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca Schapiro, Kim Blankenship, Alana Rosenberg &amp; Danya Keene (2021): The Effects of Rental Assistance on Housing Stability, Quality, Autonomy, and Affordability, Housing Policy Debate, DOI: 10.1080/10511482.2020.1846067 </t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>57, 59, 63</t>
   </si>
 </sst>
 </file>
@@ -483,16 +492,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -506,70 +515,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="153">
+    </row>
+    <row r="2" spans="1:5" ht="102">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="85">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78.75">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="78.75">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="85">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
